--- a/medicine/Psychotrope/Billie_Holiday,_une_affaire_d'État/Billie_Holiday,_une_affaire_d'État.xlsx
+++ b/medicine/Psychotrope/Billie_Holiday,_une_affaire_d'État/Billie_Holiday,_une_affaire_d'État.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
+          <t>Billie_Holiday,_une_affaire_d'État</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Billie Holiday, une affaire d'État (The United States vs. Billie Holiday[1]) est un film américain réalisé par Lee Daniels, sorti en 2021. Il s'agit d'un film biographique sur la chanteuse Billie Holiday (1915-1959), adapté de l'ouvrage non-fictionnel britannique Chasing the Scream: The First and Last Days of the War on Drugs de Johann Hari (2015)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Billie Holiday, une affaire d'État (The United States vs. Billie Holiday) est un film américain réalisé par Lee Daniels, sorti en 2021. Il s'agit d'un film biographique sur la chanteuse Billie Holiday (1915-1959), adapté de l'ouvrage non-fictionnel britannique Chasing the Scream: The First and Last Days of the War on Drugs de Johann Hari (2015).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
+          <t>Billie_Holiday,_une_affaire_d'État</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1940, la chanteuse Billie Holiday fait scandale avec sa chanson Strange Fruit qui évoque le lynchage des noirs. Sa toxicomanie sert de prétexte au FBI pour se débarrasser d'elle par une opération d'infiltration dirigée par l'agent fédéral noir Jimmy Fletcher, avec qui elle entretient une liaison tumultueuse.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
+          <t>Billie_Holiday,_une_affaire_d'État</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : The United States vs. Billie Holiday
 Titre français et québécois : Billie Holiday, une affaire d'État
 Réalisation : Lee Daniels
-Scénario : Suzan-Lori Parks, d'après le livre non-fictionnel Chasing the Scream: The First and Last Days of the War on Drugs de Johann Hari (2015)[2]
+Scénario : Suzan-Lori Parks, d'après le livre non-fictionnel Chasing the Scream: The First and Last Days of the War on Drugs de Johann Hari (2015)
 Musique : Christopher Gunning
 Direction artistique : Carolyne de Bellefeuille et Léa-Valérie Létourneau
 Décors : Daniel T. Dorrance
@@ -558,7 +574,7 @@
 Production : Jordan Fudge, Jeff Kirschenbaum, Joe Roth, Tucker Tooley et Pamela Oas Williams
 Production déléguée : Jeremy Allen, Mark Bomback, Cassian Elwes, George Parra et Hilary Shor
 Sociétés de production : Lee Daniels Entertainment et Roth/Kirschenbaum Films
-Sociétés de distribution : Hulu (États-Unis) ; Metropolitan filmexport (France), Paramount Pictures (Québec)[3]
+Sociétés de distribution : Hulu (États-Unis) ; Metropolitan filmexport (France), Paramount Pictures (Québec)
 Pays d'origine :  États-Unis
 Langue originale : anglais
 Format : couleur
@@ -566,7 +582,7 @@
 Genre : drame biographique, musical
 Dates de sortie :
 États-Unis : 26 février 2021 (en VOD sur Hulu)
-France, Suisse romande[4] : 2 juin 2021</t>
+France, Suisse romande : 2 juin 2021</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
+          <t>Billie_Holiday,_une_affaire_d'État</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Andra Day (VF : Aurélie Konaté ; VQ : Florence Blain Mbaye) : Billie Holiday
 Taryn Brown (VF : Antonella Colapietro) : Billie Holiday, à 10 ans
@@ -616,7 +634,7 @@
 Erik LaRay Harvey (en) (VF : Daniel Njo Lobé ; VQ : Widemir Normil) : Monroe
 Ray Shell (en) (VF : Jean-Paul Pitolin) : Carl, le batteur
 Version française dirigée par Déborah Perret au studio Dubbing Brothers, d'après une adaptation des dialogues également signée Déborah Perret.
- Source et légende : version française (VF) sur RS Doublage[5] et version québécoise (VQ) sur Doublage QC[6].</t>
+ Source et légende : version française (VF) sur RS Doublage et version québécoise (VQ) sur Doublage QC.</t>
         </is>
       </c>
     </row>
@@ -626,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
+          <t>Billie_Holiday,_une_affaire_d'État</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,13 +664,88 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Genèse et développement
-Le dévéloppement du film biographique sur Billie Holiday est révélé en septembre 2019, avec Lee Daniels en tant que réalisateur. Le rôle-titre est interprété par Andra Day, aux côtés de Trevante Rhodes, Garrett Hedlund et Natasha Lyonne qui participent également dans ce projet[7]. En octobre 2019, Evan Ross, Dana Gourrier et Erik LaRay Harvey y sont engagés[8], ainsi que Melvin Gregg et Miss Lawrence[9].
-Tournage
-Le tournage a lieu à Montréal au Canada, le 6 octobre 2019[10].
-Musique
-La musique du film est composée par Christopher Gunning. Warner Bros. Records commercialise un album des chansons du film interprétées par l'actrice principale, Andra Day. L'album contient également une chanson de Charlie Wilson.
-Liste des titres[11]
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dévéloppement du film biographique sur Billie Holiday est révélé en septembre 2019, avec Lee Daniels en tant que réalisateur. Le rôle-titre est interprété par Andra Day, aux côtés de Trevante Rhodes, Garrett Hedlund et Natasha Lyonne qui participent également dans ce projet. En octobre 2019, Evan Ross, Dana Gourrier et Erik LaRay Harvey y sont engagés, ainsi que Melvin Gregg et Miss Lawrence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Billie_Holiday,_une_affaire_d'État</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu à Montréal au Canada, le 6 octobre 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Billie_Holiday,_une_affaire_d'État</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La musique du film est composée par Christopher Gunning. Warner Bros. Records commercialise un album des chansons du film interprétées par l'actrice principale, Andra Day. L'album contient également une chanson de Charlie Wilson.
+Liste des titres
 All of Me (3:35)
 Strange Fruit (3:26)
 Tigress &amp; Tweed (3:11)
@@ -669,68 +762,112 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Billie_Holiday,_une_affaire_d'État</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Critiques
-Le film reçoit des critiques partagées. Sur l'agrégateur américain Rotten Tomatoes, il récolte 53 % d'opinions favorables pour 158 critiques et une note moyenne de 5,4⁄10. Le consensus du site est « Bien que le film ait souvent peur de la transcendance de son sujet, la performance d'Andra Day offre une brillante compensation »[12]. Sur Metacritic, il obtient une note moyenne de 52⁄100 pour 43 critiques[13].
-Box-office</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques partagées. Sur l'agrégateur américain Rotten Tomatoes, il récolte 53 % d'opinions favorables pour 158 critiques et une note moyenne de 5,4⁄10. Le consensus du site est « Bien que le film ait souvent peur de la transcendance de son sujet, la performance d'Andra Day offre une brillante compensation ». Sur Metacritic, il obtient une note moyenne de 52⁄100 pour 43 critiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Billie_Holiday,_une_affaire_d'État</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Récompense
-Golden Globes 2021 : Meilleure actrice dans un film dramatique pour Andra Day
-Nominations
-Golden Globes 2021 : Meilleure chanson originale : Tigress &amp; Tweed - Andra Day et Raphael Saadiq
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Golden Globes 2021 : Meilleure actrice dans un film dramatique pour Andra Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Billie_Holiday,_une_affaire_d'État</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Billie_Holiday,_une_affaire_d%27%C3%89tat</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Golden Globes 2021 : Meilleure chanson originale : Tigress &amp; Tweed - Andra Day et Raphael Saadiq
 Oscars 2021  : Meilleure actrice pour Andra Day</t>
         </is>
       </c>
